--- a/backend/src/data/DP-Filiale-clean.xlsx
+++ b/backend/src/data/DP-Filiale-clean.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04bc7efa1818b7b3/Bureau/taxacall/backend/src/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B45EDDD397D9AEBF845BEF1AA86F4C9B61B47509" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BBC1D5-B786-4D4D-A96A-B2330EF08E30}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4392" yWindow="2112" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -73,7 +79,7 @@
     <t>FRIGAN</t>
   </si>
   <si>
-    <t xml:space="preserve">ITC ALVEOLE </t>
+    <t>ITC ALVEOLE </t>
   </si>
   <si>
     <t>MBG</t>
@@ -136,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +206,25 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +262,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -278,6 +296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,9 +331,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,14 +507,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -518,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -526,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -534,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -542,7 +565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -550,7 +573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -558,7 +581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -566,7 +589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -574,7 +597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -582,7 +605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -590,7 +613,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -598,7 +621,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -606,7 +629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -614,7 +637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -622,7 +645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -630,7 +653,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -638,7 +661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -646,7 +669,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -654,7 +677,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -662,7 +685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -670,7 +693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -678,7 +701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -686,7 +709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -694,7 +717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -702,7 +725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -710,7 +733,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -718,7 +741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -726,7 +749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -734,7 +757,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -742,7 +765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -750,7 +773,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -758,7 +781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -766,7 +789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -774,7 +797,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -782,7 +805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -790,7 +813,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
